--- a/image/topic.xlsx
+++ b/image/topic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="312">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -384,10 +384,6 @@
     <t>Topic.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Business version of the Topic</t>
   </si>
   <si>
@@ -468,28 +464,6 @@
     <t>Definition.derivedFromUri</t>
   </si>
   <si>
-    <t>Topic.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t>Topics replaced by this Topic</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>As new versions of a protocol or guideline are defined, allows identification of what versions are replaced by a new instance.</t>
-  </si>
-  <si>
-    <t>!Definition.replaces</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
     <t>Topic.status</t>
   </si>
   <si>
@@ -983,6 +957,21 @@
   </si>
   <si>
     <t>Chained parameters are allowed (like "patient.gender") - but can not use colons or modifiers.</t>
+  </si>
+  <si>
+    <t>Topic.canFilterBy.matchType</t>
+  </si>
+  <si>
+    <t>= | in | not-in | above | below</t>
+  </si>
+  <si>
+    <t>Allowable operators to apply when determining matches (Search Modifiers).</t>
+  </si>
+  <si>
+    <t>Operator to apply to filter label.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/topic-match-operator|4.1.0</t>
   </si>
   <si>
     <t>Topic.canFilterBy.documentation</t>
@@ -1134,45 +1123,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.8359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.8046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="30.58984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="121.05078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="30.2109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="119.75390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2542,16 +2531,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2616,13 +2605,13 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2630,11 +2619,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2653,13 +2642,13 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2710,7 +2699,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2725,10 +2714,10 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2739,7 +2728,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2762,17 +2751,17 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2821,7 +2810,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2836,21 +2825,21 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2876,16 +2865,16 @@
         <v>61</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2934,7 +2923,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2949,55 +2938,55 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3021,13 +3010,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3045,13 +3034,13 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3060,13 +3049,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3074,7 +3063,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3082,7 +3071,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>48</v>
@@ -3097,18 +3086,20 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3132,13 +3123,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3156,10 +3147,10 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>48</v>
@@ -3171,10 +3162,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>162</v>
@@ -3189,7 +3180,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3202,26 +3193,22 @@
         <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3284,10 +3271,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>170</v>
@@ -3330,7 +3317,9 @@
         <v>175</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3393,13 +3382,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3407,18 +3396,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3438,10 +3427,10 @@
       <c r="L21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>184</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3489,13 +3478,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3510,7 +3499,7 @@
         <v>186</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3518,7 +3507,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3529,7 +3518,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3538,19 +3527,19 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3600,13 +3589,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3615,10 +3604,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3629,7 +3618,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3640,7 +3629,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3649,21 +3638,23 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3711,13 +3702,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3729,7 +3720,7 @@
         <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3740,7 +3731,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3763,20 +3754,16 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3800,13 +3787,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3824,7 +3811,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3842,7 +3829,7 @@
         <v>208</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3864,7 +3851,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3873,18 +3860,20 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3909,13 +3898,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3939,7 +3928,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3948,13 +3937,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3962,11 +3951,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3985,7 +3974,7 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>218</v>
@@ -3993,10 +3982,10 @@
       <c r="L26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4044,7 +4033,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4062,10 +4051,10 @@
         <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4073,11 +4062,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4096,18 +4085,18 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4155,7 +4144,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4170,10 +4159,10 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4184,7 +4173,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4207,16 +4196,16 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4266,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4281,10 +4270,10 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4295,7 +4284,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4315,19 +4304,19 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4377,7 +4366,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4392,10 +4381,10 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4406,11 +4395,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4429,17 +4418,15 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4488,7 +4475,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4500,13 +4487,13 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4517,11 +4504,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4537,16 +4524,16 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4597,7 +4584,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4609,13 +4596,13 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4626,18 +4613,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4649,15 +4636,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4706,13 +4695,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4724,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4735,11 +4724,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4752,24 +4741,26 @@
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4817,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4835,7 +4826,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4846,43 +4837,41 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4930,13 +4919,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4948,7 +4937,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4959,7 +4948,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4970,7 +4959,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4982,17 +4971,15 @@
         <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5017,13 +5004,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5041,13 +5028,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5070,7 +5057,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5096,10 +5083,10 @@
         <v>67</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5126,13 +5113,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5150,7 +5137,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5179,7 +5166,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5190,7 +5177,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5202,13 +5189,13 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5235,13 +5222,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5259,19 +5246,19 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
@@ -5288,7 +5275,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5308,16 +5295,16 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5368,7 +5355,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5380,13 +5367,13 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5397,18 +5384,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5420,15 +5407,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5477,13 +5466,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5495,7 +5484,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5506,11 +5495,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5523,24 +5512,26 @@
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5588,7 +5579,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5606,7 +5597,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5617,43 +5608,41 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5701,13 +5690,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5719,7 +5708,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5730,7 +5719,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5753,16 +5742,16 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5812,7 +5801,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5841,7 +5830,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5864,17 +5853,15 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5923,7 +5910,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5952,7 +5939,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5975,15 +5962,17 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6032,7 +6021,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6061,7 +6050,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6072,7 +6061,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6084,17 +6073,15 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6143,19 +6130,19 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
@@ -6172,7 +6159,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6183,7 +6170,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6192,16 +6179,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6252,25 +6239,25 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6281,18 +6268,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6304,15 +6291,17 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6361,13 +6350,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6379,7 +6368,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6390,11 +6379,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6407,24 +6396,26 @@
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6472,7 +6463,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6490,7 +6481,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6501,43 +6492,41 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6585,13 +6574,13 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6603,7 +6592,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6614,7 +6603,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6625,7 +6614,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6637,17 +6626,15 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6672,13 +6659,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6696,13 +6683,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6725,7 +6712,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6748,13 +6735,13 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6805,7 +6792,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
